--- a/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159993</t>
+          <t>163113</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华国证证券龙头ETF</t>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>97.91</t>
+          <t>34.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>163113</t>
+          <t>501016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
+          <t>国泰中证申万证券行业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>22.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501016</t>
+          <t>159993</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
+          <t>鹏华国证证券龙头ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>15.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>502053</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>502053</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>长盛中证全指证券公司指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001264</t>
+          <t>501022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华恒利灵活配置混合A</t>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48.51</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005628</t>
+          <t>008116</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安趋势动力股票A</t>
+          <t>银华沪深股通精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005629</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安趋势动力股票C</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002327</t>
+          <t>001264</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华恒利灵活配置混合C</t>
+          <t>银华恒利灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>48.51</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.43</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -754,15 +854,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>87.45</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>005628</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>汇安趋势动力股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>80.22</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501022</t>
+          <t>002327</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
+          <t>银华恒利灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82.96</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008116</t>
+          <t>005629</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华沪深股通精选混合</t>
+          <t>汇安趋势动力股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,25 +1052,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501047</t>
+          <t>159993</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
+          <t>鹏华国证证券龙头ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -930,25 +1090,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501048</t>
+          <t>501047</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
+          <t>汇添富中证全指证券公司指数LOF A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.29</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3808</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>501048</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>汇添富中证全指证券公司指数LOF C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.08</t>
+          <t>10.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159993</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华国证证券龙头ETF</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>97.85</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,172 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1541,4 +1542,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1550,7 +1551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,17 +1562,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1581,14 +1602,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -1597,14 +1692,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -1613,14 +1708,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.17</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
@@ -1629,13 +1724,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1645,7 +1646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1656,17 +1657,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1697,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -1692,14 +1787,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -1708,14 +1803,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.74</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -1724,14 +1819,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.17</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
@@ -1740,13 +1835,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1740,7 +1741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,17 +1752,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1771,14 +1792,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1787,7 +1830,97 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1803,14 +1936,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -1819,14 +1952,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.74</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -1835,14 +1968,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.17</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -1851,13 +1984,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +521,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.74</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.17</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.44</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -724,100 +835,6 @@
       </c>
       <c r="H3" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -892,22 +909,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.12</t>
+          <t>97.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0230</t>
+          <t>0.0213</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -925,7 +942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,7 +963,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -976,110 +993,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006279</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金瑞祥灵活配置混合A</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.67</t>
+          <t>96.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1142</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006280</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中金瑞祥灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>66.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1144,32 +1087,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501047</t>
+          <t>006279</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
+          <t>中金瑞祥灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>66.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4358</t>
+          <t>0.1142</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1182,36 +1125,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501048</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>95.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2729</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1220,36 +1163,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>006280</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>中金瑞祥灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.74</t>
+          <t>66.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0361</t>
-        </is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1258,6 +1199,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1465,7 +1576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601901-方正证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +490,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.74</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1.17</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,584 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +1250,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>95.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0216</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -711,6 +1278,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -835,100 +1496,6 @@
       </c>
       <c r="H3" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1003,22 +1570,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.12</t>
+          <t>97.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0230</t>
+          <t>0.0213</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1036,7 +1603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,7 +1624,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1087,110 +1654,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006279</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金瑞祥灵活配置混合A</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.67</t>
+          <t>96.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1142</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006280</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中金瑞祥灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>66.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1255,32 +1748,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501047</t>
+          <t>006279</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
+          <t>中金瑞祥灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>66.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4358</t>
+          <t>0.1142</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1293,36 +1786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501048</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>95.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2729</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1331,36 +1824,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>006280</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>中金瑞祥灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.74</t>
+          <t>66.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0361</t>
-        </is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1369,6 +1860,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1574,554 +2235,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>163113</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9132</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501016</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6053</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159993</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华国证证券龙头ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>97.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4920</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161834</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2068</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>502053</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501022</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008116</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华沪深股通精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0407</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001264</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华恒利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>48.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005360</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇安资产轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005628</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002327</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银华恒利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>48.51</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005629</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>